--- a/nkcleaned2.xlsx
+++ b/nkcleaned2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11111"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophia/Desktop/R Projects/iga240/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{62E06D86-FB99-B745-8AF7-9BC6CB55EE5C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07909F-89BA-CC4B-99B5-CFECA1C11F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1960" yWindow="800" windowWidth="28800" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Missile Tests" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId6"/>
+    <pivotCache cacheId="2" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1217" uniqueCount="166">
   <si>
     <t>Missile Name</t>
   </si>
@@ -127,9 +127,6 @@
     <t>Distance Travelled</t>
   </si>
   <si>
-    <t>500 km</t>
-  </si>
-  <si>
     <t>Other Name</t>
   </si>
   <si>
@@ -142,9 +139,6 @@
     <t>SLV</t>
   </si>
   <si>
-    <t>1,380 km</t>
-  </si>
-  <si>
     <t>Success</t>
   </si>
   <si>
@@ -208,9 +202,6 @@
     <t>134 km</t>
   </si>
   <si>
-    <t>490 km</t>
-  </si>
-  <si>
     <t>SLBM</t>
   </si>
   <si>
@@ -241,12 +232,6 @@
     <t>1400 km</t>
   </si>
   <si>
-    <t>400 km</t>
-  </si>
-  <si>
-    <t>1000 km</t>
-  </si>
-  <si>
     <t>ER Scud</t>
   </si>
   <si>
@@ -259,9 +244,6 @@
     <t>Kittaeryong Missile Base</t>
   </si>
   <si>
-    <t>800 km</t>
-  </si>
-  <si>
     <t>17 km</t>
   </si>
   <si>
@@ -274,9 +256,6 @@
     <t>120 km</t>
   </si>
   <si>
-    <t>650 km</t>
-  </si>
-  <si>
     <t>Gitdaeryung</t>
   </si>
   <si>
@@ -382,9 +361,6 @@
     <t>189 km</t>
   </si>
   <si>
-    <t>60 km</t>
-  </si>
-  <si>
     <t>Sea of Japan or East Sea</t>
   </si>
   <si>
@@ -412,9 +388,6 @@
     <t>2111.5 km</t>
   </si>
   <si>
-    <t>787 km</t>
-  </si>
-  <si>
     <t>560 km</t>
   </si>
   <si>
@@ -439,9 +412,6 @@
     <t>2802 km</t>
   </si>
   <si>
-    <t>933 km</t>
-  </si>
-  <si>
     <t>Mupyong-ni Arms Plant</t>
   </si>
   <si>
@@ -454,9 +424,6 @@
     <t>3724.9 km</t>
   </si>
   <si>
-    <t>998 km</t>
-  </si>
-  <si>
     <t>Test Outcome</t>
   </si>
   <si>
@@ -469,9 +436,6 @@
     <t>Masikryong Ski Resort, Masik Pass</t>
   </si>
   <si>
-    <t>250 km</t>
-  </si>
-  <si>
     <t>Pyongyang International Airport</t>
   </si>
   <si>
@@ -481,15 +445,9 @@
     <t>Sunan, PY Airport, Pyongyang Sunan International Airport</t>
   </si>
   <si>
-    <t>2700 km</t>
-  </si>
-  <si>
     <t>770 km</t>
   </si>
   <si>
-    <t>3700 km</t>
-  </si>
-  <si>
     <t>Scud-B MaRV</t>
   </si>
   <si>
@@ -502,9 +460,6 @@
     <t>4475 km</t>
   </si>
   <si>
-    <t>950 km</t>
-  </si>
-  <si>
     <t>Pyongsong Field</t>
   </si>
   <si>
@@ -538,15 +493,6 @@
     <t>50 km</t>
   </si>
   <si>
-    <t>420 km</t>
-  </si>
-  <si>
-    <t>430 km</t>
-  </si>
-  <si>
-    <t>690 km</t>
-  </si>
-  <si>
     <t>Kwail Airbase</t>
   </si>
   <si>
@@ -565,9 +511,6 @@
     <t>37 km</t>
   </si>
   <si>
-    <t>450 km</t>
-  </si>
-  <si>
     <t>Chakto-dong, Hamhung, Hamhung Beach</t>
   </si>
   <si>
@@ -583,9 +526,6 @@
     <t>Kangwon</t>
   </si>
   <si>
-    <t>230 km</t>
-  </si>
-  <si>
     <t>KN-25</t>
   </si>
   <si>
@@ -607,12 +547,6 @@
     <t>97 km</t>
   </si>
   <si>
-    <t>380 km</t>
-  </si>
-  <si>
-    <t>330 km</t>
-  </si>
-  <si>
     <t>Pukguksong-3</t>
   </si>
   <si>
@@ -629,9 +563,6 @@
   </si>
   <si>
     <t>90 km</t>
-  </si>
-  <si>
-    <t>370 km</t>
   </si>
   <si>
     <t>Yonpo Airport</t>
@@ -845,7 +776,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -941,6 +872,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5987,7 +5919,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Years" colHeaderCaption="Test Result">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Years" colHeaderCaption="Test Result">
   <location ref="A5:E28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -6206,7 +6138,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Missile Types">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Missile Types">
   <location ref="A5:E28" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="18">
     <pivotField showAll="0"/>
@@ -6754,10 +6686,10 @@
   </sheetPr>
   <dimension ref="A1:Q141"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="L1" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1:R1048576"/>
+      <selection pane="bottomLeft" activeCell="O133" sqref="O133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -6783,25 +6715,25 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B1" s="27" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D1" s="47" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="H1" s="27" t="s">
         <v>11</v>
@@ -6810,7 +6742,7 @@
         <v>12</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K1" s="27" t="s">
         <v>1</v>
@@ -6822,7 +6754,7 @@
         <v>3</v>
       </c>
       <c r="N1" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="O1" s="27" t="s">
         <v>17</v>
@@ -6831,7 +6763,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="27" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -6875,14 +6807,11 @@
       <c r="N2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
-        <v>10</v>
-      </c>
       <c r="P2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -6927,14 +6856,11 @@
       <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="O3" t="s">
-        <v>10</v>
-      </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -6977,16 +6903,13 @@
         <v>10</v>
       </c>
       <c r="N4" t="s">
-        <v>29</v>
-      </c>
-      <c r="O4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -7031,14 +6954,11 @@
       <c r="N5" t="s">
         <v>10</v>
       </c>
-      <c r="O5" t="s">
-        <v>10</v>
-      </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -7081,16 +7001,13 @@
         <v>10</v>
       </c>
       <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -7133,16 +7050,13 @@
         <v>10</v>
       </c>
       <c r="N7" t="s">
-        <v>29</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -7187,9 +7101,6 @@
       <c r="N8" t="s">
         <v>10</v>
       </c>
-      <c r="O8" t="s">
-        <v>10</v>
-      </c>
       <c r="P8" t="s">
         <v>16</v>
       </c>
@@ -7237,16 +7148,13 @@
         <v>10</v>
       </c>
       <c r="N9" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s">
         <v>16</v>
       </c>
       <c r="Q9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -7286,19 +7194,16 @@
         <v>129.666664</v>
       </c>
       <c r="M10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N10" t="s">
-        <v>29</v>
-      </c>
-      <c r="O10" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -7320,14 +7225,14 @@
         <v>8</v>
       </c>
       <c r="H11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I11" t="str">
         <f>VLOOKUP(H11,Table1[#All],7,FALSE)</f>
         <v>Chiha-ri , Kangwon Province, (North Korea)</v>
       </c>
       <c r="J11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11">
         <f>VLOOKUP(H11,Table1[],5,FALSE)</f>
@@ -7338,19 +7243,16 @@
         <v>126.68470000000001</v>
       </c>
       <c r="M11" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N11" t="s">
         <v>10</v>
       </c>
-      <c r="O11" t="s">
-        <v>10</v>
-      </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -7393,16 +7295,13 @@
         <v>10</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="P12" t="s">
         <v>16</v>
       </c>
       <c r="Q12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -7442,19 +7341,19 @@
         <v>129.666664</v>
       </c>
       <c r="M13" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N13" t="s">
-        <v>30</v>
-      </c>
-      <c r="O13" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="O13">
+        <v>500</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -7494,16 +7393,13 @@
         <v>129.666664</v>
       </c>
       <c r="M14" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N14" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q14" t="s">
         <v>10</v>
@@ -7546,19 +7442,16 @@
         <v>129.666664</v>
       </c>
       <c r="M15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N15" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -7598,19 +7491,16 @@
         <v>129.666664</v>
       </c>
       <c r="M16" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N16" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="48">
@@ -7626,10 +7516,10 @@
       </c>
       <c r="D17" s="45"/>
       <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" t="s">
         <v>21</v>
-      </c>
-      <c r="F17" t="s">
-        <v>22</v>
       </c>
       <c r="H17" t="s">
         <v>13</v>
@@ -7650,19 +7540,19 @@
         <v>129.666664</v>
       </c>
       <c r="M17" s="4" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="N17" t="s">
         <v>10</v>
       </c>
-      <c r="O17" t="s">
+      <c r="O17" s="49">
+        <v>1380</v>
+      </c>
+      <c r="P17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q17" t="s">
         <v>23</v>
-      </c>
-      <c r="P17" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -7678,10 +7568,10 @@
       </c>
       <c r="D18" s="45"/>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H18" t="s">
         <v>13</v>
@@ -7702,19 +7592,16 @@
         <v>129.666664</v>
       </c>
       <c r="M18" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N18" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -7736,14 +7623,14 @@
         <v>8</v>
       </c>
       <c r="H19" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I19" t="str">
         <f>VLOOKUP(H19,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J19" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K19">
         <f>VLOOKUP(H19,Table1[],5,FALSE)</f>
@@ -7754,19 +7641,16 @@
         <v>127.6236</v>
       </c>
       <c r="M19" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N19" t="s">
-        <v>30</v>
-      </c>
-      <c r="O19" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -7788,14 +7672,14 @@
         <v>6</v>
       </c>
       <c r="H20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I20" t="str">
         <f>VLOOKUP(H20,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K20">
         <f>VLOOKUP(H20,Table1[],5,FALSE)</f>
@@ -7806,19 +7690,16 @@
         <v>127.6236</v>
       </c>
       <c r="M20" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N20" t="s">
-        <v>30</v>
-      </c>
-      <c r="O20" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q20" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -7840,14 +7721,14 @@
         <v>8</v>
       </c>
       <c r="H21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I21" t="str">
         <f>VLOOKUP(H21,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J21" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K21">
         <f>VLOOKUP(H21,Table1[],5,FALSE)</f>
@@ -7858,19 +7739,16 @@
         <v>127.6236</v>
       </c>
       <c r="M21" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N21" t="s">
-        <v>30</v>
-      </c>
-      <c r="O21" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -7892,14 +7770,14 @@
         <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I22" t="str">
         <f>VLOOKUP(H22,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K22">
         <f>VLOOKUP(H22,Table1[],5,FALSE)</f>
@@ -7910,19 +7788,16 @@
         <v>127.6236</v>
       </c>
       <c r="M22" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N22" t="s">
-        <v>30</v>
-      </c>
-      <c r="O22" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -7944,14 +7819,14 @@
         <v>6</v>
       </c>
       <c r="H23" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I23" t="str">
         <f>VLOOKUP(H23,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J23" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K23">
         <f>VLOOKUP(H23,Table1[],5,FALSE)</f>
@@ -7962,19 +7837,16 @@
         <v>127.6236</v>
       </c>
       <c r="M23" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N23" t="s">
-        <v>30</v>
-      </c>
-      <c r="O23" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P23" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -7996,14 +7868,14 @@
         <v>6</v>
       </c>
       <c r="H24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I24" t="str">
         <f>VLOOKUP(H24,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K24">
         <f>VLOOKUP(H24,Table1[],5,FALSE)</f>
@@ -8014,19 +7886,16 @@
         <v>127.6236</v>
       </c>
       <c r="M24" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N24" t="s">
-        <v>30</v>
-      </c>
-      <c r="O24" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -8042,10 +7911,10 @@
       </c>
       <c r="D25" s="45"/>
       <c r="E25" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -8066,16 +7935,16 @@
         <v>129.666664</v>
       </c>
       <c r="M25" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N25" t="s">
         <v>10</v>
       </c>
       <c r="P25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -8097,14 +7966,14 @@
         <v>6</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I26" t="str">
         <f>VLOOKUP(H26,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J26" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K26">
         <f>VLOOKUP(H26,Table1[],5,FALSE)</f>
@@ -8115,19 +7984,16 @@
         <v>127.6236</v>
       </c>
       <c r="M26" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N26" t="s">
-        <v>30</v>
-      </c>
-      <c r="O26" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -8149,14 +8015,14 @@
         <v>6</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I27" t="str">
         <f>VLOOKUP(H27,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J27" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K27">
         <f>VLOOKUP(H27,Table1[],5,FALSE)</f>
@@ -8167,19 +8033,16 @@
         <v>127.6236</v>
       </c>
       <c r="M27" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N27" t="s">
-        <v>30</v>
-      </c>
-      <c r="O27" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -8201,14 +8064,14 @@
         <v>8</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I28" t="str">
         <f>VLOOKUP(H28,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J28" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K28">
         <f>VLOOKUP(H28,Table1[],5,FALSE)</f>
@@ -8219,13 +8082,13 @@
         <v>127.6236</v>
       </c>
       <c r="M28" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P28" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q28" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -8247,14 +8110,14 @@
         <v>8</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I29" t="str">
         <f>VLOOKUP(H29,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J29" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K29">
         <f>VLOOKUP(H29,Table1[],5,FALSE)</f>
@@ -8265,13 +8128,13 @@
         <v>127.6236</v>
       </c>
       <c r="M29" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P29" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -8293,14 +8156,14 @@
         <v>8</v>
       </c>
       <c r="H30" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I30" t="str">
         <f>VLOOKUP(H30,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J30" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K30">
         <f>VLOOKUP(H30,Table1[],5,FALSE)</f>
@@ -8311,13 +8174,13 @@
         <v>127.6236</v>
       </c>
       <c r="M30" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q30" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -8339,14 +8202,14 @@
         <v>8</v>
       </c>
       <c r="H31" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I31" t="str">
         <f>VLOOKUP(H31,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J31" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K31">
         <f>VLOOKUP(H31,Table1[],5,FALSE)</f>
@@ -8357,13 +8220,13 @@
         <v>127.6236</v>
       </c>
       <c r="M31" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -8385,14 +8248,14 @@
         <v>8</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I32" t="str">
         <f>VLOOKUP(H32,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J32" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K32">
         <f>VLOOKUP(H32,Table1[],5,FALSE)</f>
@@ -8403,13 +8266,13 @@
         <v>127.6236</v>
       </c>
       <c r="M32" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P32" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -8425,20 +8288,20 @@
       </c>
       <c r="D33" s="45"/>
       <c r="E33" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H33" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I33" t="str">
         <f>VLOOKUP(H33,Table1[#All],7,FALSE)</f>
         <v>Cholsan County, North Pyongan Province</v>
       </c>
       <c r="J33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K33">
         <f>VLOOKUP(H33,Table1[],5,FALSE)</f>
@@ -8449,19 +8312,16 @@
         <v>124.70569999999999</v>
       </c>
       <c r="M33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N33" t="s">
         <v>10</v>
       </c>
-      <c r="O33" t="s">
-        <v>10</v>
-      </c>
       <c r="P33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -8477,20 +8337,20 @@
       </c>
       <c r="D34" s="45"/>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I34" t="str">
         <f>VLOOKUP(H34,Table1[#All],7,FALSE)</f>
         <v>Cholsan County, North Pyongan Province</v>
       </c>
       <c r="J34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K34">
         <f>VLOOKUP(H34,Table1[],5,FALSE)</f>
@@ -8501,19 +8361,16 @@
         <v>124.70569999999999</v>
       </c>
       <c r="M34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N34" t="s">
-        <v>39</v>
-      </c>
-      <c r="O34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q34" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -8529,13 +8386,13 @@
       </c>
       <c r="D35" s="45"/>
       <c r="E35" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s">
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I35" t="str">
         <f>VLOOKUP(H35,Table1[#All],7,FALSE)</f>
@@ -8550,19 +8407,16 @@
         <v>127.5369</v>
       </c>
       <c r="M35" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N35" t="s">
         <v>10</v>
       </c>
-      <c r="O35" t="s">
-        <v>10</v>
-      </c>
       <c r="P35" t="s">
         <v>16</v>
       </c>
       <c r="Q35" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -8578,13 +8432,13 @@
       </c>
       <c r="D36" s="45"/>
       <c r="E36" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I36" t="str">
         <f>VLOOKUP(H36,Table1[#All],7,FALSE)</f>
@@ -8599,19 +8453,16 @@
         <v>127.5369</v>
       </c>
       <c r="M36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N36" t="s">
         <v>10</v>
       </c>
-      <c r="O36" t="s">
-        <v>10</v>
-      </c>
       <c r="P36" t="s">
         <v>16</v>
       </c>
       <c r="Q36" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -8627,13 +8478,13 @@
       </c>
       <c r="D37" s="45"/>
       <c r="E37" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I37" t="str">
         <f>VLOOKUP(H37,Table1[#All],7,FALSE)</f>
@@ -8648,19 +8499,16 @@
         <v>127.5369</v>
       </c>
       <c r="M37" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N37" t="s">
         <v>10</v>
       </c>
-      <c r="O37" t="s">
-        <v>10</v>
-      </c>
       <c r="P37" t="s">
         <v>16</v>
       </c>
       <c r="Q37" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -8676,13 +8524,13 @@
       </c>
       <c r="D38" s="45"/>
       <c r="E38" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s">
         <v>8</v>
       </c>
       <c r="H38" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I38" t="str">
         <f>VLOOKUP(H38,Table1[#All],7,FALSE)</f>
@@ -8697,19 +8545,16 @@
         <v>127.5369</v>
       </c>
       <c r="M38" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N38" t="s">
         <v>10</v>
       </c>
-      <c r="O38" t="s">
-        <v>10</v>
-      </c>
       <c r="P38" t="s">
         <v>16</v>
       </c>
       <c r="Q38" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -8725,13 +8570,13 @@
       </c>
       <c r="D39" s="45"/>
       <c r="E39" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s">
         <v>8</v>
       </c>
       <c r="H39" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I39" t="str">
         <f>VLOOKUP(H39,Table1[#All],7,FALSE)</f>
@@ -8746,19 +8591,16 @@
         <v>127.5369</v>
       </c>
       <c r="M39" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N39" t="s">
         <v>10</v>
       </c>
-      <c r="O39" t="s">
-        <v>10</v>
-      </c>
       <c r="P39" t="s">
         <v>16</v>
       </c>
       <c r="Q39" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -8774,13 +8616,13 @@
       </c>
       <c r="D40" s="45"/>
       <c r="E40" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s">
         <v>8</v>
       </c>
       <c r="H40" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I40" t="str">
         <f>VLOOKUP(H40,Table1[#All],7,FALSE)</f>
@@ -8795,19 +8637,16 @@
         <v>127.5369</v>
       </c>
       <c r="M40" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N40" t="s">
         <v>10</v>
       </c>
-      <c r="O40" t="s">
-        <v>10</v>
-      </c>
       <c r="P40" t="s">
         <v>16</v>
       </c>
       <c r="Q40" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -8829,14 +8668,14 @@
         <v>8</v>
       </c>
       <c r="H41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I41" t="str">
         <f>VLOOKUP(H41,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K41">
         <f>VLOOKUP(H41,Table1[],5,FALSE)</f>
@@ -8847,19 +8686,19 @@
         <v>127.6236</v>
       </c>
       <c r="M41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N41" t="s">
-        <v>33</v>
-      </c>
-      <c r="O41" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="O41">
+        <v>200</v>
       </c>
       <c r="P41" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -8881,14 +8720,14 @@
         <v>8</v>
       </c>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I42" t="str">
         <f>VLOOKUP(H42,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K42">
         <f>VLOOKUP(H42,Table1[],5,FALSE)</f>
@@ -8899,19 +8738,19 @@
         <v>127.6236</v>
       </c>
       <c r="M42" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N42" t="s">
         <v>10</v>
       </c>
-      <c r="O42" t="s">
-        <v>29</v>
+      <c r="O42">
+        <v>200</v>
       </c>
       <c r="P42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q42" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -8933,14 +8772,14 @@
         <v>8</v>
       </c>
       <c r="H43" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I43" t="str">
         <f>VLOOKUP(H43,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K43">
         <f>VLOOKUP(H43,Table1[],5,FALSE)</f>
@@ -8951,19 +8790,19 @@
         <v>127.6236</v>
       </c>
       <c r="M43" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N43" t="s">
         <v>10</v>
       </c>
-      <c r="O43" t="s">
-        <v>29</v>
+      <c r="O43">
+        <v>200</v>
       </c>
       <c r="P43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q43" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -8985,14 +8824,14 @@
         <v>8</v>
       </c>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I44" t="str">
         <f>VLOOKUP(H44,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K44">
         <f>VLOOKUP(H44,Table1[],5,FALSE)</f>
@@ -9003,19 +8842,19 @@
         <v>127.6236</v>
       </c>
       <c r="M44" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N44" t="s">
         <v>10</v>
       </c>
-      <c r="O44" t="s">
-        <v>29</v>
+      <c r="O44">
+        <v>200</v>
       </c>
       <c r="P44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q44" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -9037,14 +8876,14 @@
         <v>8</v>
       </c>
       <c r="H45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I45" t="str">
         <f>VLOOKUP(H45,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J45" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K45">
         <f>VLOOKUP(H45,Table1[],5,FALSE)</f>
@@ -9055,19 +8894,19 @@
         <v>127.4817</v>
       </c>
       <c r="M45" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N45" t="s">
-        <v>30</v>
-      </c>
-      <c r="O45" t="s">
-        <v>18</v>
+        <v>28</v>
+      </c>
+      <c r="O45">
+        <v>500</v>
       </c>
       <c r="P45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q45" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -9089,14 +8928,14 @@
         <v>8</v>
       </c>
       <c r="H46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I46" t="str">
         <f>VLOOKUP(H46,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J46" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K46">
         <f>VLOOKUP(H46,Table1[],5,FALSE)</f>
@@ -9107,19 +8946,19 @@
         <v>127.4817</v>
       </c>
       <c r="M46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O46" t="s">
-        <v>18</v>
+      <c r="O46">
+        <v>500</v>
       </c>
       <c r="P46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q46" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -9141,7 +8980,7 @@
         <v>6</v>
       </c>
       <c r="H47" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I47" t="str">
         <f>VLOOKUP(H47,Table1[#All],7,FALSE)</f>
@@ -9157,19 +8996,19 @@
         <v>125.89031</v>
       </c>
       <c r="M47" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N47" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="O47" s="3">
+        <v>650</v>
       </c>
       <c r="P47" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q47" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -9191,7 +9030,7 @@
         <v>6</v>
       </c>
       <c r="H48" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I48" t="str">
         <f>VLOOKUP(H48,Table1[#All],7,FALSE)</f>
@@ -9207,19 +9046,19 @@
         <v>125.89031</v>
       </c>
       <c r="M48" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N48" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>67</v>
+        <v>28</v>
+      </c>
+      <c r="O48" s="3">
+        <v>650</v>
       </c>
       <c r="P48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -9235,13 +9074,13 @@
       </c>
       <c r="D49" s="45"/>
       <c r="E49" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s">
         <v>8</v>
       </c>
       <c r="H49" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I49" t="str">
         <f>VLOOKUP(H49,Table1[#All],7,FALSE)</f>
@@ -9257,19 +9096,17 @@
         <v>127.5369</v>
       </c>
       <c r="M49" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O49" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O49" s="3"/>
       <c r="P49" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q49" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="32">
@@ -9291,14 +9128,14 @@
         <v>8</v>
       </c>
       <c r="H50" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I50" t="str">
         <f>VLOOKUP(H50,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J50" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K50">
         <f>VLOOKUP(H50,Table1[],5,FALSE)</f>
@@ -9309,19 +9146,16 @@
         <v>127.250257</v>
       </c>
       <c r="M50" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N50" t="s">
-        <v>30</v>
-      </c>
-      <c r="O50" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P50" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q50" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="32">
@@ -9343,14 +9177,14 @@
         <v>8</v>
       </c>
       <c r="H51" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="I51" t="str">
         <f>VLOOKUP(H51,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J51" s="4" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
       <c r="K51">
         <f>VLOOKUP(H51,Table1[],5,FALSE)</f>
@@ -9361,19 +9195,16 @@
         <v>127.250257</v>
       </c>
       <c r="M51" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N51" t="s">
-        <v>30</v>
-      </c>
-      <c r="O51" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="P51" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:17">
@@ -9395,7 +9226,7 @@
         <v>8</v>
       </c>
       <c r="H52" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I52" t="str">
         <f>VLOOKUP(H52,Table1[#All],7,FALSE)</f>
@@ -9413,19 +9244,19 @@
         <v>125.702005</v>
       </c>
       <c r="M52" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N52" t="s">
-        <v>42</v>
-      </c>
-      <c r="O52" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="O52">
+        <v>500</v>
       </c>
       <c r="P52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q52" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:17">
@@ -9447,7 +9278,7 @@
         <v>8</v>
       </c>
       <c r="H53" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I53" t="str">
         <f>VLOOKUP(H53,Table1[#All],7,FALSE)</f>
@@ -9465,19 +9296,19 @@
         <v>125.702005</v>
       </c>
       <c r="M53" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N53" t="s">
-        <v>42</v>
-      </c>
-      <c r="O53" t="s">
-        <v>18</v>
+        <v>40</v>
+      </c>
+      <c r="O53">
+        <v>500</v>
       </c>
       <c r="P53" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q53" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:17">
@@ -9499,7 +9330,7 @@
         <v>8</v>
       </c>
       <c r="H54" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I54" t="str">
         <f>VLOOKUP(H54,Table1[#All],7,FALSE)</f>
@@ -9515,19 +9346,19 @@
         <v>126.5878</v>
       </c>
       <c r="M54" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N54" t="s">
-        <v>66</v>
-      </c>
-      <c r="O54" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="O54">
+        <v>500</v>
       </c>
       <c r="P54" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q54" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:17">
@@ -9549,7 +9380,7 @@
         <v>8</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I55" t="str">
         <f>VLOOKUP(H55,Table1[#All],7,FALSE)</f>
@@ -9565,19 +9396,19 @@
         <v>126.5878</v>
       </c>
       <c r="M55" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N55" t="s">
-        <v>66</v>
-      </c>
-      <c r="O55" t="s">
-        <v>18</v>
+        <v>60</v>
+      </c>
+      <c r="O55">
+        <v>500</v>
       </c>
       <c r="P55" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q55" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="56" spans="1:17">
@@ -9617,19 +9448,19 @@
         <v>Unknown</v>
       </c>
       <c r="M56" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N56" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O56" s="3" t="s">
-        <v>18</v>
+      <c r="O56" s="3">
+        <v>500</v>
       </c>
       <c r="P56" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q56" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:17">
@@ -9645,13 +9476,13 @@
       </c>
       <c r="D57" s="45"/>
       <c r="E57" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s">
         <v>8</v>
       </c>
       <c r="H57" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I57" t="str">
         <f>VLOOKUP(H57,Table1[#All],7,FALSE)</f>
@@ -9667,19 +9498,17 @@
         <v>127.5369</v>
       </c>
       <c r="M57" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O57" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O57" s="3"/>
       <c r="P57" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q57" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="58" spans="1:17">
@@ -9695,13 +9524,13 @@
       </c>
       <c r="D58" s="45"/>
       <c r="E58" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F58" t="s">
         <v>8</v>
       </c>
       <c r="H58" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I58" t="str">
         <f>VLOOKUP(H58,Table1[#All],7,FALSE)</f>
@@ -9717,19 +9546,17 @@
         <v>127.5369</v>
       </c>
       <c r="M58" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O58" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O58" s="3"/>
       <c r="P58" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q58" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="59" spans="1:17">
@@ -9745,13 +9572,13 @@
       </c>
       <c r="D59" s="45"/>
       <c r="E59" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F59" t="s">
         <v>8</v>
       </c>
       <c r="H59" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I59" t="str">
         <f>VLOOKUP(H59,Table1[#All],7,FALSE)</f>
@@ -9767,19 +9594,17 @@
         <v>127.5369</v>
       </c>
       <c r="M59" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O59" s="3"/>
       <c r="P59" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q59" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="60" spans="1:17">
@@ -9795,13 +9620,13 @@
       </c>
       <c r="D60" s="45"/>
       <c r="E60" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F60" t="s">
         <v>8</v>
       </c>
       <c r="H60" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I60" t="str">
         <f>VLOOKUP(H60,Table1[#All],7,FALSE)</f>
@@ -9817,19 +9642,17 @@
         <v>127.5369</v>
       </c>
       <c r="M60" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O60" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O60" s="3"/>
       <c r="P60" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q60" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="1:17">
@@ -9845,13 +9668,13 @@
       </c>
       <c r="D61" s="45"/>
       <c r="E61" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F61" t="s">
         <v>8</v>
       </c>
       <c r="H61" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I61" t="str">
         <f>VLOOKUP(H61,Table1[#All],7,FALSE)</f>
@@ -9867,19 +9690,17 @@
         <v>127.5369</v>
       </c>
       <c r="M61" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O61" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O61" s="3"/>
       <c r="P61" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q61" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:17">
@@ -9895,13 +9716,13 @@
       </c>
       <c r="D62" s="45"/>
       <c r="E62" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s">
         <v>8</v>
       </c>
       <c r="H62" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I62" t="str">
         <f>VLOOKUP(H62,Table1[#All],7,FALSE)</f>
@@ -9917,19 +9738,17 @@
         <v>127.5369</v>
       </c>
       <c r="M62" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O62" s="3"/>
       <c r="P62" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q62" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:17">
@@ -9945,13 +9764,13 @@
       </c>
       <c r="D63" s="45"/>
       <c r="E63" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F63" t="s">
         <v>8</v>
       </c>
       <c r="H63" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I63" t="str">
         <f>VLOOKUP(H63,Table1[#All],7,FALSE)</f>
@@ -9967,19 +9786,17 @@
         <v>127.5369</v>
       </c>
       <c r="M63" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O63" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O63" s="3"/>
       <c r="P63" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q63" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:17">
@@ -9995,13 +9812,13 @@
       </c>
       <c r="D64" s="45"/>
       <c r="E64" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F64" t="s">
         <v>8</v>
       </c>
       <c r="H64" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I64" t="str">
         <f>VLOOKUP(H64,Table1[#All],7,FALSE)</f>
@@ -10017,19 +9834,17 @@
         <v>127.5369</v>
       </c>
       <c r="M64" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N64" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O64" s="3" t="s">
-        <v>10</v>
-      </c>
+      <c r="O64" s="3"/>
       <c r="P64" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q64" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:17">
@@ -10051,7 +9866,7 @@
         <v>8</v>
       </c>
       <c r="H65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I65" t="str">
         <f>VLOOKUP(H65,Table1[#All],7,FALSE)</f>
@@ -10066,19 +9881,19 @@
         <v>125.32470000000001</v>
       </c>
       <c r="M65" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N65" t="s">
-        <v>44</v>
-      </c>
-      <c r="O65" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="O65">
+        <v>490</v>
       </c>
       <c r="P65" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="66" spans="1:17">
@@ -10100,7 +9915,7 @@
         <v>8</v>
       </c>
       <c r="H66" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="I66" t="str">
         <f>VLOOKUP(H66,Table1[#All],7,FALSE)</f>
@@ -10115,19 +9930,19 @@
         <v>125.32470000000001</v>
       </c>
       <c r="M66" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N66" t="s">
-        <v>44</v>
-      </c>
-      <c r="O66" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="O66">
+        <v>490</v>
       </c>
       <c r="P66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q66" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:17">
@@ -10143,13 +9958,13 @@
       </c>
       <c r="D67" s="45"/>
       <c r="E67" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F67" t="s">
         <v>8</v>
       </c>
       <c r="H67" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I67" t="str">
         <f>VLOOKUP(H67,Table1[#All],7,FALSE)</f>
@@ -10165,19 +9980,16 @@
         <v>127.5369</v>
       </c>
       <c r="M67" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N67" t="s">
         <v>10</v>
       </c>
-      <c r="O67" t="s">
-        <v>10</v>
-      </c>
       <c r="P67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q67" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:17">
@@ -10193,13 +10005,13 @@
       </c>
       <c r="D68" s="45"/>
       <c r="E68" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F68" t="s">
         <v>8</v>
       </c>
       <c r="H68" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I68" t="str">
         <f>VLOOKUP(H68,Table1[#All],7,FALSE)</f>
@@ -10215,19 +10027,16 @@
         <v>127.5369</v>
       </c>
       <c r="M68" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N68" t="s">
         <v>10</v>
       </c>
-      <c r="O68" t="s">
-        <v>10</v>
-      </c>
       <c r="P68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q68" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:17">
@@ -10243,13 +10052,13 @@
       </c>
       <c r="D69" s="45"/>
       <c r="E69" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F69" t="s">
         <v>8</v>
       </c>
       <c r="H69" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I69" t="str">
         <f>VLOOKUP(H69,Table1[#All],7,FALSE)</f>
@@ -10265,19 +10074,16 @@
         <v>127.5369</v>
       </c>
       <c r="M69" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N69" t="s">
         <v>10</v>
       </c>
-      <c r="O69" t="s">
-        <v>10</v>
-      </c>
       <c r="P69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q69" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:17">
@@ -10293,13 +10099,13 @@
       </c>
       <c r="D70" s="45"/>
       <c r="E70" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F70" t="s">
         <v>8</v>
       </c>
       <c r="H70" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I70" t="str">
         <f>VLOOKUP(H70,Table1[#All],7,FALSE)</f>
@@ -10315,19 +10121,16 @@
         <v>127.5369</v>
       </c>
       <c r="M70" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N70" t="s">
         <v>10</v>
       </c>
-      <c r="O70" t="s">
-        <v>10</v>
-      </c>
       <c r="P70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q70" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:17">
@@ -10343,13 +10146,13 @@
       </c>
       <c r="D71" s="45"/>
       <c r="E71" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="F71" t="s">
         <v>8</v>
       </c>
       <c r="H71" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I71" t="str">
         <f>VLOOKUP(H71,Table1[#All],7,FALSE)</f>
@@ -10365,19 +10168,16 @@
         <v>127.5369</v>
       </c>
       <c r="M71" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N71" t="s">
         <v>10</v>
       </c>
-      <c r="O71" t="s">
-        <v>10</v>
-      </c>
       <c r="P71" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q71" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:17">
@@ -10393,13 +10193,13 @@
       </c>
       <c r="D72" s="45"/>
       <c r="E72" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I72" t="str">
         <f>VLOOKUP(H72,Table1[#All],7,FALSE)</f>
@@ -10419,14 +10219,11 @@
       <c r="N72" t="s">
         <v>10</v>
       </c>
-      <c r="O72" t="s">
-        <v>10</v>
-      </c>
       <c r="P72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q72" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="73" spans="1:17">
@@ -10442,13 +10239,13 @@
       </c>
       <c r="D73" s="45"/>
       <c r="E73" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I73" t="str">
         <f>VLOOKUP(H73,Table1[#All],7,FALSE)</f>
@@ -10463,19 +10260,16 @@
         <v>128.18389999999999</v>
       </c>
       <c r="M73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N73" t="s">
-        <v>40</v>
-      </c>
-      <c r="O73" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P73" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q73" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="74" spans="1:17">
@@ -10491,13 +10285,13 @@
       </c>
       <c r="D74" s="45"/>
       <c r="E74" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F74" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I74" t="str">
         <f>VLOOKUP(H74,Table1[#All],7,FALSE)</f>
@@ -10512,19 +10306,16 @@
         <v>128.18389999999999</v>
       </c>
       <c r="M74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N74" t="s">
-        <v>40</v>
-      </c>
-      <c r="O74" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P74" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q74" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="75" spans="1:17">
@@ -10542,20 +10333,20 @@
         <v>2.013888888888889E-2</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F75" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H75" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I75" t="str">
         <f>VLOOKUP(H75,Table1[#All],7,FALSE)</f>
         <v>Cholsan County, North Pyongan Province</v>
       </c>
       <c r="J75" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="K75">
         <f>VLOOKUP(H75,Table1[],5,FALSE)</f>
@@ -10566,19 +10357,16 @@
         <v>124.70569999999999</v>
       </c>
       <c r="M75" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N75" t="s">
-        <v>65</v>
-      </c>
-      <c r="O75" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="P75" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="76" spans="1:17">
@@ -10600,14 +10388,14 @@
         <v>8</v>
       </c>
       <c r="H76" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I76" t="str">
         <f>VLOOKUP(H76,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J76" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K76">
         <f>VLOOKUP(H76,Table1[],5,FALSE)</f>
@@ -10618,19 +10406,16 @@
         <v>125.702005</v>
       </c>
       <c r="M76" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N76" t="s">
         <v>10</v>
       </c>
-      <c r="O76" t="s">
-        <v>10</v>
-      </c>
       <c r="P76" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:17">
@@ -10652,14 +10437,14 @@
         <v>8</v>
       </c>
       <c r="H77" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I77" t="str">
         <f>VLOOKUP(H77,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J77" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K77">
         <f>VLOOKUP(H77,Table1[],5,FALSE)</f>
@@ -10670,19 +10455,16 @@
         <v>125.702005</v>
       </c>
       <c r="M77" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N77" t="s">
         <v>10</v>
       </c>
-      <c r="O77" t="s">
-        <v>10</v>
-      </c>
       <c r="P77" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:17">
@@ -10704,7 +10486,7 @@
         <v>6</v>
       </c>
       <c r="H78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I78" t="str">
         <f>VLOOKUP(H78,Table1[#All],7,FALSE)</f>
@@ -10719,19 +10501,19 @@
         <v>125.89031</v>
       </c>
       <c r="M78" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N78" t="s">
         <v>10</v>
       </c>
-      <c r="O78" t="s">
-        <v>62</v>
+      <c r="O78">
+        <v>800</v>
       </c>
       <c r="P78" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q78" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="79" spans="1:17">
@@ -10753,7 +10535,7 @@
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I79" t="str">
         <f>VLOOKUP(H79,Table1[#All],7,FALSE)</f>
@@ -10768,19 +10550,16 @@
         <v>125.89031</v>
       </c>
       <c r="M79" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N79" t="s">
-        <v>63</v>
-      </c>
-      <c r="O79" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="P79" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="80" spans="1:17">
@@ -10798,20 +10577,20 @@
         <v>0.85625000000000007</v>
       </c>
       <c r="E80" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F80" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H80" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I80" t="str">
         <f>VLOOKUP(H80,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J80" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K80">
         <f>VLOOKUP(H80,Table1[],5,FALSE)</f>
@@ -10827,14 +10606,11 @@
       <c r="N80" t="s">
         <v>10</v>
       </c>
-      <c r="O80" t="s">
-        <v>10</v>
-      </c>
       <c r="P80" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="81" spans="1:17">
@@ -10852,13 +10628,13 @@
         <v>0.39513888888888887</v>
       </c>
       <c r="E81" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F81" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I81" t="str">
         <f>VLOOKUP(H81,Table1[#All],7,FALSE)</f>
@@ -10878,14 +10654,14 @@
       <c r="N81" t="s">
         <v>10</v>
       </c>
-      <c r="O81" t="s">
-        <v>49</v>
+      <c r="O81">
+        <v>30</v>
       </c>
       <c r="P81" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q81" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="82" spans="1:17">
@@ -10903,20 +10679,20 @@
         <v>0.8979166666666667</v>
       </c>
       <c r="E82" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H82" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I82" t="str">
         <f>VLOOKUP(H82,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J82" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K82">
         <f>VLOOKUP(H82,Table1[],5,FALSE)</f>
@@ -10927,19 +10703,16 @@
         <v>127.4817</v>
       </c>
       <c r="M82" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N82" t="s">
         <v>10</v>
       </c>
-      <c r="O82" t="s">
-        <v>10</v>
-      </c>
       <c r="P82" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="83" spans="1:17">
@@ -10957,20 +10730,20 @@
         <v>0.43333333333333335</v>
       </c>
       <c r="E83" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F83" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H83" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I83" t="str">
         <f>VLOOKUP(H83,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J83" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K83">
         <f>VLOOKUP(H83,Table1[],5,FALSE)</f>
@@ -10981,19 +10754,16 @@
         <v>127.4817</v>
       </c>
       <c r="M83" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N83" t="s">
         <v>10</v>
       </c>
-      <c r="O83" t="s">
-        <v>10</v>
-      </c>
       <c r="P83" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q83" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="84" spans="1:17">
@@ -11011,20 +10781,20 @@
         <v>0.85416666666666663</v>
       </c>
       <c r="E84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F84" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H84" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I84" t="str">
         <f>VLOOKUP(H84,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J84" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K84">
         <f>VLOOKUP(H84,Table1[],5,FALSE)</f>
@@ -11035,19 +10805,16 @@
         <v>127.4817</v>
       </c>
       <c r="M84" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N84" t="s">
         <v>10</v>
       </c>
-      <c r="O84" t="s">
-        <v>10</v>
-      </c>
       <c r="P84" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q84" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="85" spans="1:17">
@@ -11065,20 +10832,20 @@
         <v>0.87222222222222223</v>
       </c>
       <c r="E85" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F85" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H85" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I85" t="str">
         <f>VLOOKUP(H85,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K85">
         <f>VLOOKUP(H85,Table1[],5,FALSE)</f>
@@ -11089,19 +10856,16 @@
         <v>127.4817</v>
       </c>
       <c r="M85" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N85" t="s">
         <v>10</v>
       </c>
-      <c r="O85" t="s">
-        <v>10</v>
-      </c>
       <c r="P85" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q85" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="86" spans="1:17">
@@ -11119,20 +10883,20 @@
         <v>0.9604166666666667</v>
       </c>
       <c r="E86" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F86" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H86" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I86" t="str">
         <f>VLOOKUP(H86,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J86" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K86">
         <f>VLOOKUP(H86,Table1[],5,FALSE)</f>
@@ -11143,19 +10907,19 @@
         <v>127.4817</v>
       </c>
       <c r="M86" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N86" t="s">
-        <v>55</v>
-      </c>
-      <c r="O86" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="O86">
+        <v>400</v>
       </c>
       <c r="P86" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q86" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="87" spans="1:17">
@@ -11173,13 +10937,13 @@
         <v>0.10277777777777779</v>
       </c>
       <c r="E87" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F87" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I87" t="str">
         <f>VLOOKUP(H87,Table1[#All],7,FALSE)</f>
@@ -11194,19 +10958,16 @@
         <v>128.18389999999999</v>
       </c>
       <c r="M87" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N87" t="s">
-        <v>50</v>
-      </c>
-      <c r="O87" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="P87" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q87" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="32">
@@ -11230,17 +10991,17 @@
         <v>8</v>
       </c>
       <c r="G88" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H88" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I88" t="str">
         <f>VLOOKUP(H88,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J88" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K88">
         <f>VLOOKUP(H88,Table1[],5,FALSE)</f>
@@ -11256,14 +11017,11 @@
       <c r="N88" t="s">
         <v>10</v>
       </c>
-      <c r="O88" t="s">
-        <v>10</v>
-      </c>
       <c r="P88" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q88" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="32">
@@ -11287,17 +11045,17 @@
         <v>8</v>
       </c>
       <c r="G89" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I89" t="str">
         <f>VLOOKUP(H89,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J89" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K89">
         <f>VLOOKUP(H89,Table1[],5,FALSE)</f>
@@ -11313,14 +11071,11 @@
       <c r="N89" t="s">
         <v>10</v>
       </c>
-      <c r="O89" t="s">
-        <v>10</v>
-      </c>
       <c r="P89" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q89" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="32">
@@ -11344,17 +11099,17 @@
         <v>6</v>
       </c>
       <c r="G90" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H90" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I90" t="str">
         <f>VLOOKUP(H90,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J90" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K90">
         <f>VLOOKUP(H90,Table1[],5,FALSE)</f>
@@ -11365,19 +11120,19 @@
         <v>125.702005</v>
       </c>
       <c r="M90" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N90" t="s">
         <v>10</v>
       </c>
-      <c r="O90" t="s">
-        <v>18</v>
+      <c r="O90">
+        <v>500</v>
       </c>
       <c r="P90" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q90" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="91" spans="1:17">
@@ -11401,14 +11156,14 @@
         <v>6</v>
       </c>
       <c r="H91" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I91" t="str">
         <f>VLOOKUP(H91,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J91" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K91">
         <f>VLOOKUP(H91,Table1[],5,FALSE)</f>
@@ -11419,19 +11174,19 @@
         <v>125.702005</v>
       </c>
       <c r="M91" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N91" t="s">
         <v>10</v>
       </c>
-      <c r="O91" t="s">
-        <v>57</v>
+      <c r="O91">
+        <v>1000</v>
       </c>
       <c r="P91" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q91" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="92" spans="1:17">
@@ -11455,14 +11210,14 @@
         <v>6</v>
       </c>
       <c r="H92" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I92" t="str">
         <f>VLOOKUP(H92,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J92" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K92">
         <f>VLOOKUP(H92,Table1[],5,FALSE)</f>
@@ -11478,14 +11233,11 @@
       <c r="N92" t="s">
         <v>10</v>
       </c>
-      <c r="O92" t="s">
-        <v>10</v>
-      </c>
       <c r="P92" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="93" spans="1:17">
@@ -11503,13 +11255,13 @@
         <v>0.8534722222222223</v>
       </c>
       <c r="E93" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="F93" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I93" t="str">
         <f>VLOOKUP(H93,Table1[#All],7,FALSE)</f>
@@ -11524,19 +11276,19 @@
         <v>128.18389999999999</v>
       </c>
       <c r="M93" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N93" t="s">
         <v>10</v>
       </c>
-      <c r="O93" t="s">
-        <v>18</v>
+      <c r="O93">
+        <v>500</v>
       </c>
       <c r="P93" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q93" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="32">
@@ -11554,23 +11306,23 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="E94" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F94" t="s">
         <v>6</v>
       </c>
       <c r="G94" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H94" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I94" t="str">
         <f>VLOOKUP(H94,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J94" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K94">
         <f>VLOOKUP(H94,Table1[],5,FALSE)</f>
@@ -11581,19 +11333,19 @@
         <v>125.702005</v>
       </c>
       <c r="M94" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N94" t="s">
         <v>10</v>
       </c>
-      <c r="O94" t="s">
-        <v>57</v>
+      <c r="O94">
+        <v>1000</v>
       </c>
       <c r="P94" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q94" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="95" spans="1:17" ht="32">
@@ -11611,23 +11363,23 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="E95" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F95" t="s">
         <v>6</v>
       </c>
       <c r="G95" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H95" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I95" t="str">
         <f>VLOOKUP(H95,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J95" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K95">
         <f>VLOOKUP(H95,Table1[],5,FALSE)</f>
@@ -11638,19 +11390,19 @@
         <v>125.702005</v>
       </c>
       <c r="M95" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N95" t="s">
         <v>10</v>
       </c>
-      <c r="O95" t="s">
-        <v>57</v>
+      <c r="O95">
+        <v>1000</v>
       </c>
       <c r="P95" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q95" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="32">
@@ -11668,23 +11420,23 @@
         <v>0.13402777777777777</v>
       </c>
       <c r="E96" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F96" t="s">
         <v>6</v>
       </c>
       <c r="G96" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H96" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="I96" t="str">
         <f>VLOOKUP(H96,Table1[#All],7,FALSE)</f>
         <v>Hwangju,  North Hwanghae province</v>
       </c>
       <c r="J96" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="K96">
         <f>VLOOKUP(H96,Table1[],5,FALSE)</f>
@@ -11695,19 +11447,19 @@
         <v>125.702005</v>
       </c>
       <c r="M96" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N96" t="s">
         <v>10</v>
       </c>
-      <c r="O96" t="s">
-        <v>57</v>
+      <c r="O96">
+        <v>1000</v>
       </c>
       <c r="P96" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q96" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="97" spans="1:17">
@@ -11725,20 +11477,20 @@
         <v>0.7729166666666667</v>
       </c>
       <c r="E97" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F97" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H97" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I97" t="str">
         <f>VLOOKUP(H97,Table1[#All],7,FALSE)</f>
         <v>Kusong, North Pyongan</v>
       </c>
       <c r="J97" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K97">
         <f>VLOOKUP(H97,Table1[],5,FALSE)</f>
@@ -11754,14 +11506,11 @@
       <c r="N97" t="s">
         <v>10</v>
       </c>
-      <c r="O97" t="s">
-        <v>10</v>
-      </c>
       <c r="P97" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q97" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="98" spans="1:17">
@@ -11779,20 +11528,20 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E98" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F98" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H98" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I98" t="str">
         <f>VLOOKUP(H98,Table1[#All],7,FALSE)</f>
         <v>Kusong, North Pyongan</v>
       </c>
       <c r="J98" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="K98">
         <f>VLOOKUP(H98,Table1[],5,FALSE)</f>
@@ -11808,14 +11557,11 @@
       <c r="N98" t="s">
         <v>10</v>
       </c>
-      <c r="O98" t="s">
-        <v>10</v>
-      </c>
       <c r="P98" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q98" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="103.5" customHeight="1">
@@ -11833,23 +11579,23 @@
         <v>0.95486111111111116</v>
       </c>
       <c r="E99" s="29" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F99" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G99" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H99" s="29" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="I99" t="str">
         <f>VLOOKUP(H99,Table1[#All],7,FALSE)</f>
         <v>Kusong, North Pyongan</v>
       </c>
       <c r="J99" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="K99">
         <f>VLOOKUP(H99,Table1[],5,FALSE)</f>
@@ -11860,19 +11606,19 @@
         <v>125.22302000000001</v>
       </c>
       <c r="M99" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N99" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="O99" s="29" t="s">
-        <v>18</v>
+        <v>92</v>
+      </c>
+      <c r="O99" s="29">
+        <v>500</v>
       </c>
       <c r="P99" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q99" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="32">
@@ -11890,16 +11636,16 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="E100" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F100" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G100" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H100" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I100" s="9" t="str">
         <f>VLOOKUP(H100,Table1[#All],7,FALSE)</f>
@@ -11915,19 +11661,19 @@
         <v>124.70569999999999</v>
       </c>
       <c r="M100" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N100" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="O100" s="29" t="s">
-        <v>57</v>
+        <v>94</v>
+      </c>
+      <c r="O100" s="29">
+        <v>1000</v>
       </c>
       <c r="P100" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q100" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="32">
@@ -11945,16 +11691,16 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="E101" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F101" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G101" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H101" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I101" s="9" t="str">
         <f>VLOOKUP(H101,Table1[#All],7,FALSE)</f>
@@ -11970,19 +11716,19 @@
         <v>124.70569999999999</v>
       </c>
       <c r="M101" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N101" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="O101" s="29" t="s">
-        <v>57</v>
+        <v>94</v>
+      </c>
+      <c r="O101" s="29">
+        <v>1000</v>
       </c>
       <c r="P101" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q101" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="32">
@@ -12000,16 +11746,16 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="E102" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F102" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G102" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H102" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I102" s="9" t="str">
         <f>VLOOKUP(H102,Table1[#All],7,FALSE)</f>
@@ -12025,19 +11771,19 @@
         <v>124.70569999999999</v>
       </c>
       <c r="M102" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N102" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="O102" s="29" t="s">
-        <v>57</v>
+        <v>94</v>
+      </c>
+      <c r="O102" s="29">
+        <v>1000</v>
       </c>
       <c r="P102" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q102" s="32" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="32">
@@ -12055,16 +11801,16 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="E103" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F103" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G103" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H103" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I103" s="9" t="str">
         <f>VLOOKUP(H103,Table1[#All],7,FALSE)</f>
@@ -12080,19 +11826,19 @@
         <v>124.70569999999999</v>
       </c>
       <c r="M103" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N103" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="O103" s="29" t="s">
-        <v>57</v>
+        <v>94</v>
+      </c>
+      <c r="O103" s="29">
+        <v>1000</v>
       </c>
       <c r="P103" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q103" s="29" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="32">
@@ -12110,16 +11856,16 @@
         <v>0.94027777777777777</v>
       </c>
       <c r="E104" s="29" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F104" s="29" t="s">
         <v>6</v>
       </c>
       <c r="G104" s="29" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="H104" s="29" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I104" s="9" t="str">
         <f>VLOOKUP(H104,Table1[#All],7,FALSE)</f>
@@ -12137,10 +11883,10 @@
       <c r="N104" s="29"/>
       <c r="O104" s="29"/>
       <c r="P104" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q104" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="16">
@@ -12164,17 +11910,17 @@
         <v>10</v>
       </c>
       <c r="G105" s="28" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H105" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I105" s="9" t="str">
         <f>VLOOKUP(H105,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K105" s="9">
         <f>VLOOKUP(H105,Table1[],5,FALSE)</f>
@@ -12185,17 +11931,17 @@
         <v>127.4817</v>
       </c>
       <c r="M105" s="36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N105" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O105" s="37"/>
       <c r="P105" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q105" s="33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:17">
@@ -12213,16 +11959,16 @@
         <v>0.90416666666666667</v>
       </c>
       <c r="E106" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F106" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G106" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H106" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I106" t="str">
         <f>VLOOKUP(H106,Table1[#All],7,FALSE)</f>
@@ -12237,19 +11983,19 @@
         <v>128.18389999999999</v>
       </c>
       <c r="M106" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N106" t="s">
-        <v>102</v>
-      </c>
-      <c r="O106" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="O106">
+        <v>60</v>
       </c>
       <c r="P106" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q106" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="16">
@@ -12267,16 +12013,16 @@
         <v>0.88958333333333339</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F107" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G107" s="35" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="H107" s="32" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="I107" t="str">
         <f>VLOOKUP(H107,Table1[#All],7,FALSE)</f>
@@ -12291,19 +12037,19 @@
         <v>128.18389999999999</v>
       </c>
       <c r="M107" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N107" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="O107" s="32" t="s">
-        <v>31</v>
+        <v>29</v>
+      </c>
+      <c r="O107" s="32">
+        <v>0</v>
       </c>
       <c r="P107" s="31" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q107" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="16">
@@ -12321,14 +12067,14 @@
         <v>0.85625000000000007</v>
       </c>
       <c r="E108" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F108" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G108" s="42"/>
       <c r="H108" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="I108" t="str">
         <f>VLOOKUP(H108,Table1[#All],7,FALSE)</f>
@@ -12343,17 +12089,17 @@
         <v>125.964333</v>
       </c>
       <c r="M108" s="41" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N108" s="41" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="O108" s="41"/>
       <c r="P108" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q108" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="16">
@@ -12371,14 +12117,14 @@
         <v>0.85277777777777775</v>
       </c>
       <c r="E109" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F109" s="41" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G109" s="42"/>
       <c r="H109" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="I109" t="str">
         <f>VLOOKUP(H109,Table1[#All],7,FALSE)</f>
@@ -12393,19 +12139,19 @@
         <v>125.2099</v>
       </c>
       <c r="M109" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="N109" t="s">
         <v>104</v>
       </c>
-      <c r="N109" t="s">
-        <v>112</v>
-      </c>
-      <c r="O109" t="s">
-        <v>113</v>
+      <c r="O109">
+        <v>787</v>
       </c>
       <c r="P109" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q109" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="233.25" customHeight="1">
@@ -12423,14 +12169,14 @@
         <v>0.33263888888888887</v>
       </c>
       <c r="E110" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="F110" t="s">
         <v>6</v>
       </c>
       <c r="G110" s="42"/>
       <c r="H110" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="I110" t="str">
         <f>VLOOKUP(H110,Table1[#All],7,FALSE)</f>
@@ -12445,19 +12191,19 @@
         <v>125.80358510000001</v>
       </c>
       <c r="M110" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N110" t="s">
-        <v>114</v>
-      </c>
-      <c r="O110" t="s">
-        <v>18</v>
+        <v>105</v>
+      </c>
+      <c r="O110">
+        <v>500</v>
       </c>
       <c r="P110" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q110" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="16">
@@ -12475,21 +12221,21 @@
         <v>0.86111111111111116</v>
       </c>
       <c r="E111" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F111" t="s">
         <v>8</v>
       </c>
       <c r="G111" s="42"/>
       <c r="H111" s="29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I111" t="str">
         <f>VLOOKUP(H111,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J111" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K111">
         <f>VLOOKUP(H111,Table1[],5,FALSE)</f>
@@ -12500,19 +12246,19 @@
         <v>127.4817</v>
       </c>
       <c r="M111" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N111" t="s">
-        <v>66</v>
-      </c>
-      <c r="O111" t="s">
-        <v>56</v>
+        <v>60</v>
+      </c>
+      <c r="O111">
+        <v>400</v>
       </c>
       <c r="P111" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q111" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="16">
@@ -12530,21 +12276,21 @@
         <v>2.7777777777777776E-2</v>
       </c>
       <c r="E112" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F112" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G112" s="42"/>
       <c r="H112" s="41" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="I112" t="str">
         <f>VLOOKUP(H112,Table1[#All],7,FALSE)</f>
         <v>Kusong, North Pyongan</v>
       </c>
       <c r="J112" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="K112">
         <f>VLOOKUP(H112,Table1[],5,FALSE)</f>
@@ -12555,19 +12301,19 @@
         <v>125.269192</v>
       </c>
       <c r="M112" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N112" t="s">
-        <v>121</v>
-      </c>
-      <c r="O112" t="s">
-        <v>122</v>
+        <v>112</v>
+      </c>
+      <c r="O112">
+        <v>933</v>
       </c>
       <c r="P112" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q112" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="113" spans="1:17" ht="16">
@@ -12585,21 +12331,21 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="E113" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F113" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G113" s="42"/>
       <c r="H113" s="41" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="I113" t="str">
         <f>VLOOKUP(H113,Table1[#All],7,FALSE)</f>
         <v>Mup'yong-ni, Chagang province</v>
       </c>
       <c r="J113" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="K113">
         <f>VLOOKUP(H113,Table1[],5,FALSE)</f>
@@ -12610,19 +12356,19 @@
         <v>126.425743</v>
       </c>
       <c r="M113" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N113" t="s">
-        <v>126</v>
-      </c>
-      <c r="O113" t="s">
-        <v>127</v>
+        <v>116</v>
+      </c>
+      <c r="O113">
+        <v>998</v>
       </c>
       <c r="P113" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q113" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="114" spans="1:17" ht="16">
@@ -12640,21 +12386,21 @@
         <v>0.90902777777777777</v>
       </c>
       <c r="E114" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F114" t="s">
         <v>8</v>
       </c>
       <c r="G114" s="42"/>
       <c r="H114" s="41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I114" t="str">
         <f>VLOOKUP(H114,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J114" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K114">
         <f>VLOOKUP(H114,Table1[],5,FALSE)</f>
@@ -12665,16 +12411,16 @@
         <v>127.6236</v>
       </c>
       <c r="M114" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="O114" t="s">
-        <v>132</v>
+        <v>96</v>
+      </c>
+      <c r="O114">
+        <v>250</v>
       </c>
       <c r="P114" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q114" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="115" spans="1:17" ht="16">
@@ -12692,21 +12438,21 @@
         <v>0.92152777777777783</v>
       </c>
       <c r="E115" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F115" t="s">
         <v>8</v>
       </c>
       <c r="G115" s="42"/>
       <c r="H115" s="41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I115" t="str">
         <f>VLOOKUP(H115,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J115" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K115">
         <f>VLOOKUP(H115,Table1[],5,FALSE)</f>
@@ -12717,16 +12463,13 @@
         <v>127.6236</v>
       </c>
       <c r="M115" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="O115" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="P115" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q115" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="116" spans="1:17" ht="16">
@@ -12744,21 +12487,21 @@
         <v>0.92986111111111114</v>
       </c>
       <c r="E116" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F116" t="s">
         <v>8</v>
       </c>
       <c r="G116" s="42"/>
       <c r="H116" s="41" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="I116" t="str">
         <f>VLOOKUP(H116,Table1[#All],7,FALSE)</f>
         <v>Kittae Pass, Kangwon Province, (North Korea)</v>
       </c>
       <c r="J116" s="3" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="K116">
         <f>VLOOKUP(H116,Table1[],5,FALSE)</f>
@@ -12769,16 +12512,16 @@
         <v>127.6236</v>
       </c>
       <c r="M116" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="O116" t="s">
-        <v>132</v>
+        <v>96</v>
+      </c>
+      <c r="O116">
+        <v>250</v>
       </c>
       <c r="P116" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q116" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="117" spans="1:17" ht="16">
@@ -12796,21 +12539,21 @@
         <v>0.87361111111111101</v>
       </c>
       <c r="E117" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F117" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G117" s="42"/>
       <c r="H117" s="41" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I117" t="str">
         <f>VLOOKUP(H117,Table1[#All],7,FALSE)</f>
         <v>Pyongyang, North Korea</v>
       </c>
       <c r="J117" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K117">
         <f>VLOOKUP(H117,Table1[],5,FALSE)</f>
@@ -12821,16 +12564,16 @@
         <v>125.67325599999999</v>
       </c>
       <c r="M117" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N117" t="s">
-        <v>99</v>
-      </c>
-      <c r="O117" t="s">
-        <v>136</v>
+        <v>92</v>
+      </c>
+      <c r="O117">
+        <v>2700</v>
       </c>
       <c r="P117" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q117" s="41" t="s">
         <v>10</v>
@@ -12851,21 +12594,21 @@
         <v>0.9145833333333333</v>
       </c>
       <c r="E118" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F118" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="G118" s="42"/>
       <c r="H118" s="41" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="I118" t="str">
         <f>VLOOKUP(H118,Table1[#All],7,FALSE)</f>
         <v>Pyongyang, North Korea</v>
       </c>
       <c r="J118" s="3" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="K118">
         <f>VLOOKUP(H118,Table1[],5,FALSE)</f>
@@ -12876,19 +12619,19 @@
         <v>125.67325599999999</v>
       </c>
       <c r="M118" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="N118" t="s">
-        <v>137</v>
-      </c>
-      <c r="O118" t="s">
-        <v>138</v>
+        <v>124</v>
+      </c>
+      <c r="O118">
+        <v>3700</v>
       </c>
       <c r="P118" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q118" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="119" spans="1:17" ht="16">
@@ -12906,21 +12649,21 @@
         <v>0.76250000000000007</v>
       </c>
       <c r="E119" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="F119" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G119" s="42"/>
       <c r="H119" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="I119" t="str">
         <f>VLOOKUP(H119,Table1[#All],7,FALSE)</f>
         <v>Pyongsong, South Pyongan Province</v>
       </c>
       <c r="J119" s="3" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="K119">
         <f>VLOOKUP(H119,Table1[],5,FALSE)</f>
@@ -12931,19 +12674,19 @@
         <v>125.869</v>
       </c>
       <c r="M119" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N119" t="s">
-        <v>142</v>
-      </c>
-      <c r="O119" t="s">
-        <v>143</v>
+        <v>128</v>
+      </c>
+      <c r="O119">
+        <v>950</v>
       </c>
       <c r="P119" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q119" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:17" ht="16">
@@ -12961,21 +12704,21 @@
         <v>7.9166666666666663E-2</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F120" t="s">
         <v>8</v>
       </c>
       <c r="G120" s="42"/>
       <c r="H120" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I120" t="str">
         <f>VLOOKUP(H120,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J120" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K120">
         <f>VLOOKUP(H120,Table1[],5,FALSE)</f>
@@ -12986,16 +12729,16 @@
         <v>127.5369</v>
       </c>
       <c r="M120" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="O120" t="s">
-        <v>29</v>
+        <v>96</v>
+      </c>
+      <c r="O120">
+        <v>200</v>
       </c>
       <c r="P120" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q120" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="121" spans="1:17" ht="16">
@@ -13011,21 +12754,21 @@
       </c>
       <c r="D121" s="48"/>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F121" t="s">
         <v>8</v>
       </c>
       <c r="G121" s="42"/>
       <c r="H121" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I121" t="str">
         <f>VLOOKUP(H121,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J121" s="3" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="K121">
         <f>VLOOKUP(H121,Table1[],5,FALSE)</f>
@@ -13037,10 +12780,10 @@
       </c>
       <c r="M121" s="41"/>
       <c r="P121" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q121" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="122" spans="1:17" ht="16">
@@ -13058,21 +12801,21 @@
         <v>0.31180555555555556</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F122" t="s">
         <v>8</v>
       </c>
       <c r="G122" s="42"/>
       <c r="H122" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I122" t="str">
         <f>VLOOKUP(H122,Table1[#All],7,FALSE)</f>
         <v>North Pyongan, North Korea</v>
       </c>
       <c r="J122" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K122">
         <f>VLOOKUP(H122,Table1[],5,FALSE)</f>
@@ -13084,16 +12827,16 @@
       </c>
       <c r="M122" s="41"/>
       <c r="N122" t="s">
-        <v>154</v>
-      </c>
-      <c r="O122" t="s">
-        <v>155</v>
+        <v>139</v>
+      </c>
+      <c r="O122">
+        <v>420</v>
       </c>
       <c r="P122" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q122" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123" spans="1:17" ht="16">
@@ -13111,21 +12854,21 @@
         <v>0.32569444444444445</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F123" t="s">
         <v>8</v>
       </c>
       <c r="G123" s="42"/>
       <c r="H123" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="I123" t="str">
         <f>VLOOKUP(H123,Table1[#All],7,FALSE)</f>
         <v>North Pyongan, North Korea</v>
       </c>
       <c r="J123" s="3" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="K123">
         <f>VLOOKUP(H123,Table1[],5,FALSE)</f>
@@ -13137,10 +12880,10 @@
       </c>
       <c r="M123" s="41"/>
       <c r="P123" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q123" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="124" spans="1:17" ht="16">
@@ -13158,20 +12901,20 @@
         <v>0.8569444444444444</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F124" t="s">
         <v>8</v>
       </c>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I124" t="str">
         <f>VLOOKUP(H124,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J124" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K124">
         <f>VLOOKUP(H124,Table1[],5,FALSE)</f>
@@ -13182,19 +12925,19 @@
         <v>127.5369</v>
       </c>
       <c r="M124" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N124" t="s">
-        <v>154</v>
-      </c>
-      <c r="O124" t="s">
-        <v>156</v>
+        <v>139</v>
+      </c>
+      <c r="O124">
+        <v>430</v>
       </c>
       <c r="P124" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q124" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="125" spans="1:17" ht="16">
@@ -13212,20 +12955,20 @@
         <v>0.87291666666666667</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F125" t="s">
         <v>8</v>
       </c>
       <c r="H125" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="I125" t="str">
         <f>VLOOKUP(H125,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J125" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="K125">
         <f>VLOOKUP(H125,Table1[],5,FALSE)</f>
@@ -13236,19 +12979,19 @@
         <v>127.5369</v>
       </c>
       <c r="M125" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N125" t="s">
-        <v>154</v>
-      </c>
-      <c r="O125" t="s">
-        <v>157</v>
+        <v>139</v>
+      </c>
+      <c r="O125">
+        <v>690</v>
       </c>
       <c r="P125" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q125" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="126" spans="1:17" ht="16">
@@ -13264,20 +13007,20 @@
       </c>
       <c r="D126" s="48"/>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F126" t="s">
         <v>8</v>
       </c>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I126" t="str">
         <f>VLOOKUP(H126,Table1[#All],7,FALSE)</f>
         <v>Kwail, Kwail-gun, South Hwanghae</v>
       </c>
       <c r="J126" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K126">
         <f>VLOOKUP(H126,Table1[],5,FALSE)</f>
@@ -13288,19 +13031,19 @@
         <v>125.024421</v>
       </c>
       <c r="M126" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N126" t="s">
-        <v>163</v>
-      </c>
-      <c r="O126" t="s">
-        <v>164</v>
+        <v>145</v>
+      </c>
+      <c r="O126">
+        <v>450</v>
       </c>
       <c r="P126" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q126" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="127" spans="1:17" ht="16">
@@ -13316,20 +13059,20 @@
       </c>
       <c r="D127" s="48"/>
       <c r="E127" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="F127" t="s">
         <v>8</v>
       </c>
       <c r="H127" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="I127" t="str">
         <f>VLOOKUP(H127,Table1[#All],7,FALSE)</f>
         <v>Kwail, Kwail-gun, South Hwanghae</v>
       </c>
       <c r="J127" t="s">
-        <v>162</v>
+        <v>144</v>
       </c>
       <c r="K127">
         <f>VLOOKUP(H127,Table1[],5,FALSE)</f>
@@ -13340,19 +13083,19 @@
         <v>125.024421</v>
       </c>
       <c r="M127" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N127" t="s">
-        <v>163</v>
-      </c>
-      <c r="O127" t="s">
-        <v>164</v>
+        <v>145</v>
+      </c>
+      <c r="O127">
+        <v>450</v>
       </c>
       <c r="P127" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q127" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:17" ht="16">
@@ -13370,20 +13113,20 @@
         <v>0.8569444444444444</v>
       </c>
       <c r="E128" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F128" t="s">
         <v>8</v>
       </c>
       <c r="H128" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="I128" t="str">
         <f>VLOOKUP(H128,Table1[#All],7,FALSE)</f>
         <v>Hamhung, South Hamgyong</v>
       </c>
       <c r="J128" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K128">
         <f>VLOOKUP(H128,Table1[],5,FALSE)</f>
@@ -13394,19 +13137,19 @@
         <v>127.66374999999999</v>
       </c>
       <c r="M128" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N128" t="s">
-        <v>166</v>
-      </c>
-      <c r="O128" t="s">
-        <v>56</v>
+        <v>147</v>
+      </c>
+      <c r="O128">
+        <v>400</v>
       </c>
       <c r="P128" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q128" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="129" spans="1:17" ht="16">
@@ -13424,20 +13167,20 @@
         <v>0.86805555555555547</v>
       </c>
       <c r="E129" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F129" t="s">
         <v>8</v>
       </c>
       <c r="H129" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="I129" t="str">
         <f>VLOOKUP(H129,Table1[#All],7,FALSE)</f>
         <v>Hamhung, South Hamgyong</v>
       </c>
       <c r="J129" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="K129">
         <f>VLOOKUP(H129,Table1[],5,FALSE)</f>
@@ -13448,19 +13191,19 @@
         <v>127.66374999999999</v>
       </c>
       <c r="M129" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N129" t="s">
-        <v>166</v>
-      </c>
-      <c r="O129" t="s">
-        <v>56</v>
+        <v>147</v>
+      </c>
+      <c r="O129">
+        <v>400</v>
       </c>
       <c r="P129" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q129" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="130" spans="1:17" ht="16">
@@ -13478,20 +13221,20 @@
         <v>0.9590277777777777</v>
       </c>
       <c r="E130" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F130" t="s">
         <v>8</v>
       </c>
       <c r="H130" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="I130" t="str">
         <f>VLOOKUP(H130,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J130" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K130">
         <f>VLOOKUP(H130,Table1[],5,FALSE)</f>
@@ -13502,19 +13245,19 @@
         <v>127.891882</v>
       </c>
       <c r="M130" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N130" t="s">
-        <v>49</v>
-      </c>
-      <c r="O130" t="s">
-        <v>170</v>
+        <v>46</v>
+      </c>
+      <c r="O130">
+        <v>230</v>
       </c>
       <c r="P130" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q130" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="131" spans="1:17" ht="16">
@@ -13532,20 +13275,20 @@
         <v>0.96944444444444444</v>
       </c>
       <c r="E131" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="F131" t="s">
         <v>8</v>
       </c>
       <c r="H131" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="I131" t="str">
         <f>VLOOKUP(H131,Table1[#All],7,FALSE)</f>
         <v>Kangwon Province, (North Korea)</v>
       </c>
       <c r="J131" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="K131">
         <f>VLOOKUP(H131,Table1[],5,FALSE)</f>
@@ -13556,19 +13299,19 @@
         <v>127.891882</v>
       </c>
       <c r="M131" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N131" t="s">
-        <v>49</v>
-      </c>
-      <c r="O131" t="s">
-        <v>170</v>
+        <v>46</v>
+      </c>
+      <c r="O131">
+        <v>230</v>
       </c>
       <c r="P131" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q131" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="132" spans="1:17" ht="16">
@@ -13586,20 +13329,20 @@
         <v>0.90625</v>
       </c>
       <c r="E132" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F132" t="s">
         <v>8</v>
       </c>
       <c r="H132" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I132" t="str">
         <f>VLOOKUP(H132,Table1[#All],7,FALSE)</f>
         <v>Sondok, South Hamgyong Province</v>
       </c>
       <c r="J132" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="K132">
         <f>VLOOKUP(H132,Table1[],5,FALSE)</f>
@@ -13610,19 +13353,19 @@
         <v>127.47320000000001</v>
       </c>
       <c r="M132" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N132" t="s">
-        <v>177</v>
-      </c>
-      <c r="O132" t="s">
-        <v>178</v>
+        <v>157</v>
+      </c>
+      <c r="O132">
+        <v>380</v>
       </c>
       <c r="P132" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q132" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="133" spans="1:17" ht="16">
@@ -13640,20 +13383,20 @@
         <v>0.91805555555555562</v>
       </c>
       <c r="E133" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F133" t="s">
         <v>8</v>
       </c>
       <c r="H133" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="I133" t="str">
         <f>VLOOKUP(H133,Table1[#All],7,FALSE)</f>
         <v>Sondok, South Hamgyong Province</v>
       </c>
       <c r="J133" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="K133">
         <f>VLOOKUP(H133,Table1[],5,FALSE)</f>
@@ -13664,19 +13407,19 @@
         <v>127.47320000000001</v>
       </c>
       <c r="M133" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N133" t="s">
-        <v>177</v>
-      </c>
-      <c r="O133" t="s">
-        <v>178</v>
+        <v>157</v>
+      </c>
+      <c r="O133">
+        <v>380</v>
       </c>
       <c r="P133" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q133" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="134" spans="1:17" ht="16">
@@ -13694,13 +13437,13 @@
         <v>0.91180555555555554</v>
       </c>
       <c r="E134" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F134" t="s">
         <v>8</v>
       </c>
       <c r="H134" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I134" t="str">
         <f>VLOOKUP(H134,Table1[#All],7,FALSE)</f>
@@ -13715,19 +13458,19 @@
         <v>125.899905</v>
       </c>
       <c r="M134" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N134" t="s">
-        <v>154</v>
-      </c>
-      <c r="O134" t="s">
-        <v>179</v>
+        <v>139</v>
+      </c>
+      <c r="O134">
+        <v>330</v>
       </c>
       <c r="P134" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q134" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="135" spans="1:17" ht="16">
@@ -13745,13 +13488,13 @@
         <v>0.92499999999999993</v>
       </c>
       <c r="E135" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F135" t="s">
         <v>8</v>
       </c>
       <c r="H135" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I135" t="str">
         <f>VLOOKUP(H135,Table1[#All],7,FALSE)</f>
@@ -13766,19 +13509,19 @@
         <v>125.899905</v>
       </c>
       <c r="M135" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N135" t="s">
-        <v>154</v>
-      </c>
-      <c r="O135" t="s">
-        <v>179</v>
+        <v>139</v>
+      </c>
+      <c r="O135">
+        <v>330</v>
       </c>
       <c r="P135" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q135" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="136" spans="1:17" ht="16">
@@ -13794,13 +13537,13 @@
       </c>
       <c r="D136" s="48"/>
       <c r="E136" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F136" t="s">
         <v>8</v>
       </c>
       <c r="H136" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="I136" t="str">
         <f>VLOOKUP(H136,Table1[#All],7,FALSE)</f>
@@ -13815,13 +13558,13 @@
         <v>125.899905</v>
       </c>
       <c r="M136" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="P136" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q136" s="41" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="137" spans="1:17" ht="16">
@@ -13839,13 +13582,13 @@
         <v>0.91666666666666663</v>
       </c>
       <c r="E137" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="H137" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="I137" t="str">
         <f>VLOOKUP(H137,Table1[#All],7,FALSE)</f>
@@ -13860,19 +13603,19 @@
         <v>127.58</v>
       </c>
       <c r="M137" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N137" t="s">
-        <v>182</v>
-      </c>
-      <c r="O137" t="s">
-        <v>164</v>
+        <v>160</v>
+      </c>
+      <c r="O137">
+        <v>450</v>
       </c>
       <c r="P137" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q137" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="138" spans="1:17" ht="16">
@@ -13890,13 +13633,13 @@
         <v>0.31597222222222221</v>
       </c>
       <c r="E138" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F138" t="s">
         <v>8</v>
       </c>
       <c r="H138" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I138" t="str">
         <f>VLOOKUP(H138,Table1[#All],7,FALSE)</f>
@@ -13911,19 +13654,19 @@
         <v>125.89031</v>
       </c>
       <c r="M138" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N138" t="s">
-        <v>185</v>
-      </c>
-      <c r="O138" t="s">
-        <v>186</v>
+        <v>163</v>
+      </c>
+      <c r="O138">
+        <v>370</v>
       </c>
       <c r="P138" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q138" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="139" spans="1:17" ht="16">
@@ -13941,13 +13684,13 @@
         <v>0.31805555555555554</v>
       </c>
       <c r="E139" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F139" t="s">
         <v>8</v>
       </c>
       <c r="H139" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I139" t="str">
         <f>VLOOKUP(H139,Table1[#All],7,FALSE)</f>
@@ -13962,19 +13705,19 @@
         <v>125.89031</v>
       </c>
       <c r="M139" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N139" t="s">
-        <v>185</v>
-      </c>
-      <c r="O139" t="s">
-        <v>186</v>
+        <v>163</v>
+      </c>
+      <c r="O139">
+        <v>370</v>
       </c>
       <c r="P139" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q139" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="140" spans="1:17" ht="16">
@@ -13992,13 +13735,13 @@
         <v>0.33263888888888887</v>
       </c>
       <c r="E140" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F140" t="s">
         <v>8</v>
       </c>
       <c r="H140" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="I140" t="str">
         <f>VLOOKUP(H140,Table1[#All],7,FALSE)</f>
@@ -14013,19 +13756,19 @@
         <v>127.53993</v>
       </c>
       <c r="M140" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N140" t="s">
-        <v>177</v>
-      </c>
-      <c r="O140" t="s">
-        <v>178</v>
+        <v>157</v>
+      </c>
+      <c r="O140">
+        <v>380</v>
       </c>
       <c r="P140" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q140" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="141" spans="1:17" ht="16">
@@ -14043,13 +13786,13 @@
         <v>0.33298611111111115</v>
       </c>
       <c r="E141" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="F141" t="s">
         <v>8</v>
       </c>
       <c r="H141" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="I141" t="str">
         <f>VLOOKUP(H141,Table1[#All],7,FALSE)</f>
@@ -14064,19 +13807,19 @@
         <v>127.53993</v>
       </c>
       <c r="M141" s="41" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="N141" t="s">
-        <v>177</v>
-      </c>
-      <c r="O141" t="s">
-        <v>178</v>
+        <v>157</v>
+      </c>
+      <c r="O141">
+        <v>380</v>
       </c>
       <c r="P141" s="43" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q141" s="41" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -14131,45 +13874,45 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="6" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" s="8">
         <v>1</v>
@@ -14184,7 +13927,7 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="8">
         <v>7</v>
@@ -14244,7 +13987,7 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="8">
         <v>1</v>
@@ -14257,7 +14000,7 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8">
         <v>2</v>
@@ -14270,7 +14013,7 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="8">
         <v>1</v>
@@ -14300,7 +14043,7 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="7" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="8">
@@ -14313,7 +14056,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="7" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B17" s="8">
         <v>3</v>
@@ -14330,7 +14073,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="7" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B18" s="8"/>
       <c r="C18" s="8">
@@ -14343,7 +14086,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="7" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B19" s="8"/>
       <c r="C19" s="8">
@@ -14356,7 +14099,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B20" s="8">
         <v>1</v>
@@ -14371,7 +14114,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="7" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B21" s="8"/>
       <c r="C21" s="8">
@@ -14384,7 +14127,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="7" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B22" s="8"/>
       <c r="C22" s="8">
@@ -14397,7 +14140,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="7" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B23" s="8">
         <v>1</v>
@@ -14412,7 +14155,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8">
@@ -14425,7 +14168,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B25" s="8">
         <v>3</v>
@@ -14440,7 +14183,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="7" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B26" s="8"/>
       <c r="C26" s="8">
@@ -14453,7 +14196,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="7" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B27" s="8"/>
       <c r="C27" s="8">
@@ -14466,7 +14209,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="7" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B28" s="8">
         <v>28</v>
@@ -14511,15 +14254,15 @@
         <v>15</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="11" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -14527,24 +14270,24 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="14" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B7" s="16">
         <v>1</v>
@@ -14560,7 +14303,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="15" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B8" s="16">
         <v>7</v>
@@ -14620,7 +14363,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="16">
         <v>1</v>
@@ -14633,7 +14376,7 @@
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B13" s="16">
         <v>2</v>
@@ -14646,7 +14389,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="15" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="16">
         <v>1</v>
@@ -14676,7 +14419,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="15" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B16" s="16"/>
       <c r="C16" s="16">
@@ -14689,7 +14432,7 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B17" s="16">
         <v>3</v>
@@ -14706,7 +14449,7 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="15" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B18" s="16"/>
       <c r="C18" s="16">
@@ -14719,7 +14462,7 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="15" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16">
@@ -14732,7 +14475,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="15" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="B20" s="16">
         <v>1</v>
@@ -14747,7 +14490,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="15" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B21" s="16"/>
       <c r="C21" s="16">
@@ -14760,7 +14503,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="15" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B22" s="16"/>
       <c r="C22" s="16">
@@ -14773,7 +14516,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="15" t="s">
-        <v>171</v>
+        <v>151</v>
       </c>
       <c r="B23" s="16">
         <v>1</v>
@@ -14788,7 +14531,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="15" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="B24" s="16"/>
       <c r="C24" s="16">
@@ -14801,7 +14544,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="15" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B25" s="16">
         <v>3</v>
@@ -14816,7 +14559,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="15" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B26" s="16"/>
       <c r="C26" s="16">
@@ -14829,7 +14572,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="15" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B27" s="16"/>
       <c r="C27" s="16">
@@ -14842,7 +14585,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="17" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B28" s="18">
         <v>28</v>
@@ -14905,25 +14648,25 @@
     <row r="1" spans="1:12" ht="73.5" customHeight="1"/>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" t="s">
         <v>80</v>
       </c>
-      <c r="B2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>87</v>
-      </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -14949,12 +14692,12 @@
         <v>129.666664</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1">
         <f t="array" ref="B4">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -14975,7 +14718,7 @@
         <v>126.68470000000001</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -15006,7 +14749,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="1">
         <f t="array" ref="B6">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15027,12 +14770,12 @@
         <v>127.6236</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1">
         <f t="array" ref="B7">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15053,12 +14796,12 @@
         <v>124.70569999999999</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B8" s="1">
         <f t="array" ref="B8">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15079,12 +14822,12 @@
         <v>127.4817</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="1">
         <f t="array" ref="B9">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15105,12 +14848,12 @@
         <v>125.89031</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B10" s="1">
         <f t="array" ref="B10">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15131,12 +14874,12 @@
         <v>127.5369</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
         <f t="array" ref="B11">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15157,7 +14900,7 @@
         <v>125.702005</v>
       </c>
       <c r="G11" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -15167,7 +14910,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1">
         <f t="array" ref="B12">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15188,7 +14931,7 @@
         <v>126.5878</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -15198,7 +14941,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B13" s="1">
         <f t="array" ref="B13">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15219,7 +14962,7 @@
         <v>125.32470000000001</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -15229,7 +14972,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B14" s="1">
         <f t="array" ref="B14">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15250,7 +14993,7 @@
         <v>128.18389999999999</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -15260,7 +15003,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="1">
         <f t="array" ref="B15">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15281,7 +15024,7 @@
         <v>125.20788899999999</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
@@ -15291,7 +15034,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B16" s="1">
         <f t="array" ref="B16">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15312,7 +15055,7 @@
         <v>125.22302000000001</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -15322,7 +15065,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B17" s="1">
         <f t="array" ref="B17">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15343,7 +15086,7 @@
         <v>125.964333</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H17" s="8"/>
       <c r="I17" s="8"/>
@@ -15353,7 +15096,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1">
         <f t="array" ref="B18">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15374,7 +15117,7 @@
         <v>125.2099</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H18" s="8"/>
       <c r="I18" s="8"/>
@@ -15384,7 +15127,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1">
         <f t="array" ref="B19">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15405,7 +15148,7 @@
         <v>125.80358510000001</v>
       </c>
       <c r="G19" s="8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H19" s="8"/>
       <c r="I19" s="8"/>
@@ -15415,7 +15158,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B20" s="1">
         <f t="array" ref="B20">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15436,7 +15179,7 @@
         <v>125.269192</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="H20" s="8"/>
       <c r="I20" s="8"/>
@@ -15446,7 +15189,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B21" s="1">
         <f t="array" ref="B21">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15467,7 +15210,7 @@
         <v>126.425743</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="H21" s="8"/>
       <c r="I21" s="8"/>
@@ -15477,7 +15220,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="B22" s="1">
         <f t="array" ref="B22">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15498,7 +15241,7 @@
         <v>127.250257</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H22" s="8"/>
       <c r="I22" s="8"/>
@@ -15508,7 +15251,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1">
         <f t="array" ref="B23">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15529,7 +15272,7 @@
         <v>125.67325599999999</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="8"/>
@@ -15539,7 +15282,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B24" s="1">
         <f t="array" ref="B24">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15560,7 +15303,7 @@
         <v>125.869</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="H24" s="8"/>
       <c r="I24" s="8"/>
@@ -15570,7 +15313,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="B25" s="1">
         <f t="array" ref="B25">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15591,7 +15334,7 @@
         <v>125.22732600000001</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -15601,7 +15344,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="B26" s="1">
         <f t="array" ref="B26">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15622,7 +15365,7 @@
         <v>125.024421</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
@@ -15632,7 +15375,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B27" s="1">
         <f t="array" ref="B27">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15653,7 +15396,7 @@
         <v>127.66374999999999</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8"/>
@@ -15663,7 +15406,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B28" s="1">
         <f t="array" ref="B28">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15684,7 +15427,7 @@
         <v>127.891882</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H28" s="8"/>
       <c r="I28" s="8"/>
@@ -15694,7 +15437,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="B29" s="1">
         <f t="array" ref="B29">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15715,7 +15458,7 @@
         <v>127.47320000000001</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="H29" s="8"/>
       <c r="I29" s="8"/>
@@ -15725,7 +15468,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B30" s="1">
         <f t="array" ref="B30">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15746,7 +15489,7 @@
         <v>125.899905</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="H30" s="8"/>
       <c r="I30" s="8"/>
@@ -15756,7 +15499,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B31" s="1">
         <f t="array" ref="B31">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15777,7 +15520,7 @@
         <v>127.58</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="H31" s="8"/>
       <c r="I31" s="8"/>
@@ -15787,7 +15530,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="B32" s="1">
         <f t="array" ref="B32">MIN(IF('Missile Tests'!$H$2:$H$141=Table1[[#This Row],[Facility]], 'Missile Tests'!$B$2:$B$141))</f>
@@ -15808,7 +15551,7 @@
         <v>127.53993</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -15818,7 +15561,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1">
         <f>SUBTOTAL(105,Table1[Date of First Test])</f>
@@ -15947,7 +15690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A27" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
@@ -15957,21 +15700,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16215,6 +15958,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{176755E8-8297-43DB-AC62-3FFE5C8514C8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22A9C930-96D1-4971-B3F0-35161F850DC9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16228,14 +15979,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f58e5246-e0f2-4431-8520-c00858564643"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{176755E8-8297-43DB-AC62-3FFE5C8514C8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
